--- a/3_Component_Results/EXPORT/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/EXPORT/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ME</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,22 +562,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.572692697128204</v>
+        <v>-0.2848744657242845</v>
       </c>
       <c r="C7">
-        <v>1.184717048496178</v>
+        <v>1.081999780872457</v>
       </c>
       <c r="D7">
-        <v>2.165812385356456</v>
+        <v>1.826018359938472</v>
       </c>
       <c r="E7">
-        <v>1.471669930846063</v>
+        <v>1.351302467968764</v>
       </c>
       <c r="F7">
-        <v>1.46428869080334</v>
+        <v>1.401061387326184</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -582,22 +585,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.8009219418340301</v>
+        <v>-0.660147827454144</v>
       </c>
       <c r="C8">
-        <v>0.8009219418340301</v>
+        <v>0.8867455175475859</v>
       </c>
       <c r="D8">
-        <v>0.770747345544189</v>
+        <v>0.9350091296531003</v>
       </c>
       <c r="E8">
-        <v>0.8779221751067625</v>
+        <v>0.9669587011103941</v>
       </c>
       <c r="F8">
-        <v>0.4151648485971093</v>
+        <v>0.7739875778543277</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -605,18 +608,41 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.8126820873051628</v>
+        <v>-0.01627907676619128</v>
       </c>
       <c r="C9">
-        <v>0.8126820873051628</v>
+        <v>0.5255089814372506</v>
       </c>
       <c r="D9">
-        <v>0.6604521750266762</v>
+        <v>0.3174133864681257</v>
       </c>
       <c r="E9">
-        <v>0.8126820873051628</v>
+        <v>0.5633945211555804</v>
+      </c>
+      <c r="F9">
+        <v>0.689726443738131</v>
       </c>
       <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>-0.2577465226711695</v>
+      </c>
+      <c r="C10">
+        <v>0.2577465226711695</v>
+      </c>
+      <c r="D10">
+        <v>0.06643326994907969</v>
+      </c>
+      <c r="E10">
+        <v>0.2577465226711695</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
     </row>

--- a/3_Component_Results/EXPORT/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/EXPORT/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ME</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.1428980747596427</v>
+        <v>0.5127034053968609</v>
       </c>
       <c r="C2">
-        <v>1.00597227665819</v>
+        <v>2.354683216389064</v>
       </c>
       <c r="D2">
-        <v>1.617174212764293</v>
+        <v>21.51883753708786</v>
       </c>
       <c r="E2">
-        <v>1.271681647569191</v>
+        <v>4.63884010686808</v>
       </c>
       <c r="F2">
-        <v>1.311328185816548</v>
+        <v>4.656295975374199</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04375675397007558</v>
+        <v>0.3819122929006201</v>
       </c>
       <c r="C3">
-        <v>1.002688653820741</v>
+        <v>2.700847678713336</v>
       </c>
       <c r="D3">
-        <v>1.486524836466484</v>
+        <v>23.37810112586181</v>
       </c>
       <c r="E3">
-        <v>1.219231248150442</v>
+        <v>4.835090601618734</v>
       </c>
       <c r="F3">
-        <v>1.26819860360836</v>
+        <v>4.868918931091797</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -493,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02126099678370371</v>
+        <v>0.6176629386333392</v>
       </c>
       <c r="C4">
-        <v>0.8555086295355719</v>
+        <v>2.723463983124111</v>
       </c>
       <c r="D4">
-        <v>1.184754302783983</v>
+        <v>22.08313540798907</v>
       </c>
       <c r="E4">
-        <v>1.088464194534658</v>
+        <v>4.699269667511013</v>
       </c>
       <c r="F4">
-        <v>1.136646873827373</v>
+        <v>4.706776513729007</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -516,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.0506863750818835</v>
+        <v>0.381006056814591</v>
       </c>
       <c r="C5">
-        <v>0.905153643075566</v>
+        <v>2.954926706810196</v>
       </c>
       <c r="D5">
-        <v>1.145008598473595</v>
+        <v>28.55326029953887</v>
       </c>
       <c r="E5">
-        <v>1.070050745746946</v>
+        <v>5.343525081773161</v>
       </c>
       <c r="F5">
-        <v>1.121018928850052</v>
+        <v>5.386327341582761</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -539,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.09479827592966783</v>
+        <v>0.6469176831876277</v>
       </c>
       <c r="C6">
-        <v>0.8444545666696002</v>
+        <v>2.826642545086848</v>
       </c>
       <c r="D6">
-        <v>1.333883441808125</v>
+        <v>25.35880009863441</v>
       </c>
       <c r="E6">
-        <v>1.154938717771694</v>
+        <v>5.035752187968984</v>
       </c>
       <c r="F6">
-        <v>1.213304362606921</v>
+        <v>5.048017233789481</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -562,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.2848744657242845</v>
+        <v>0.2154064431303112</v>
       </c>
       <c r="C7">
-        <v>1.081999780872457</v>
+        <v>2.800487624318238</v>
       </c>
       <c r="D7">
-        <v>1.826018359938472</v>
+        <v>23.5782612740286</v>
       </c>
       <c r="E7">
-        <v>1.351302467968764</v>
+        <v>4.855745182155732</v>
       </c>
       <c r="F7">
-        <v>1.401061387326184</v>
+        <v>4.90456844077524</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -585,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.660147827454144</v>
+        <v>0.4014956228238964</v>
       </c>
       <c r="C8">
-        <v>0.8867455175475859</v>
+        <v>2.47465533314814</v>
       </c>
       <c r="D8">
-        <v>0.9350091296531003</v>
+        <v>22.1750436314307</v>
       </c>
       <c r="E8">
-        <v>0.9669587011103941</v>
+        <v>4.709038503923142</v>
       </c>
       <c r="F8">
-        <v>0.7739875778543277</v>
+        <v>4.744908803445824</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -608,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01627907676619128</v>
+        <v>0.2593136598854769</v>
       </c>
       <c r="C9">
-        <v>0.5255089814372506</v>
+        <v>2.81160301979944</v>
       </c>
       <c r="D9">
-        <v>0.3174133864681257</v>
+        <v>23.53166153297062</v>
       </c>
       <c r="E9">
-        <v>0.5633945211555804</v>
+        <v>4.850944395988334</v>
       </c>
       <c r="F9">
-        <v>0.689726443738131</v>
+        <v>4.90001041808519</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -631,19 +634,45 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.2577465226711695</v>
+        <v>0.5085583818752069</v>
       </c>
       <c r="C10">
-        <v>0.2577465226711695</v>
+        <v>2.833416566355677</v>
       </c>
       <c r="D10">
-        <v>0.06643326994907969</v>
+        <v>27.39546393872693</v>
       </c>
       <c r="E10">
-        <v>0.2577465226711695</v>
+        <v>5.234067628405935</v>
+      </c>
+      <c r="F10">
+        <v>5.270953174329484</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.2444862114304603</v>
+      </c>
+      <c r="C11">
+        <v>2.496374826965832</v>
+      </c>
+      <c r="D11">
+        <v>22.44915894541807</v>
+      </c>
+      <c r="E11">
+        <v>4.738054341754436</v>
+      </c>
+      <c r="F11">
+        <v>4.789098872386438</v>
+      </c>
+      <c r="G11">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/EXPORT/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/EXPORT/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.5127034053968609</v>
+        <v>0.4414089885834451</v>
       </c>
       <c r="C2">
-        <v>2.354683216389064</v>
+        <v>2.069638249730092</v>
       </c>
       <c r="D2">
-        <v>21.51883753708786</v>
+        <v>13.91237005874871</v>
       </c>
       <c r="E2">
-        <v>4.63884010686808</v>
+        <v>3.729928961622286</v>
       </c>
       <c r="F2">
-        <v>4.656295975374199</v>
+        <v>3.748613346451448</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3819122929006201</v>
+        <v>0.6527988889848677</v>
       </c>
       <c r="C3">
-        <v>2.700847678713336</v>
+        <v>2.704908097310158</v>
       </c>
       <c r="D3">
-        <v>23.37810112586181</v>
+        <v>26.48805711061894</v>
       </c>
       <c r="E3">
-        <v>4.835090601618734</v>
+        <v>5.146654943807573</v>
       </c>
       <c r="F3">
-        <v>4.868918931091797</v>
+        <v>5.168506407966236</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.6176629386333392</v>
+        <v>0.4956225713272083</v>
       </c>
       <c r="C4">
-        <v>2.723463983124111</v>
+        <v>3.16172899281031</v>
       </c>
       <c r="D4">
-        <v>22.08313540798907</v>
+        <v>28.92945162613211</v>
       </c>
       <c r="E4">
-        <v>4.699269667511013</v>
+        <v>5.378610566506197</v>
       </c>
       <c r="F4">
-        <v>4.706776513729007</v>
+        <v>5.423955401537688</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.381006056814591</v>
+        <v>0.7736103189250133</v>
       </c>
       <c r="C5">
-        <v>2.954926706810196</v>
+        <v>3.244499711943635</v>
       </c>
       <c r="D5">
-        <v>28.55326029953887</v>
+        <v>27.52530586389647</v>
       </c>
       <c r="E5">
-        <v>5.343525081773161</v>
+        <v>5.246456505480291</v>
       </c>
       <c r="F5">
-        <v>5.386327341582761</v>
+        <v>5.25694148770441</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.6469176831876277</v>
+        <v>0.4595302257764673</v>
       </c>
       <c r="C6">
-        <v>2.826642545086848</v>
+        <v>3.50693379280404</v>
       </c>
       <c r="D6">
-        <v>25.35880009863441</v>
+        <v>35.78621063427334</v>
       </c>
       <c r="E6">
-        <v>5.035752187968984</v>
+        <v>5.982157690522153</v>
       </c>
       <c r="F6">
-        <v>5.048017233789481</v>
+        <v>6.04454549522689</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2154064431303112</v>
+        <v>0.8473814559220318</v>
       </c>
       <c r="C7">
-        <v>2.800487624318238</v>
+        <v>3.362369025740158</v>
       </c>
       <c r="D7">
-        <v>23.5782612740286</v>
+        <v>31.85202081669558</v>
       </c>
       <c r="E7">
-        <v>4.855745182155732</v>
+        <v>5.643759457728118</v>
       </c>
       <c r="F7">
-        <v>4.90456844077524</v>
+        <v>5.656747993276202</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.4014956228238964</v>
+        <v>0.3348332891986572</v>
       </c>
       <c r="C8">
-        <v>2.47465533314814</v>
+        <v>3.296274014622933</v>
       </c>
       <c r="D8">
-        <v>22.1750436314307</v>
+        <v>29.66640705715701</v>
       </c>
       <c r="E8">
-        <v>4.709038503923142</v>
+        <v>5.446687714304631</v>
       </c>
       <c r="F8">
-        <v>4.744908803445824</v>
+        <v>5.513501801737392</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2593136598854769</v>
+        <v>0.5287725799852153</v>
       </c>
       <c r="C9">
-        <v>2.81160301979944</v>
+        <v>2.929081919830375</v>
       </c>
       <c r="D9">
-        <v>23.53166153297062</v>
+        <v>28.22038967316498</v>
       </c>
       <c r="E9">
-        <v>4.850944395988334</v>
+        <v>5.312286670838178</v>
       </c>
       <c r="F9">
-        <v>4.90001041808519</v>
+        <v>5.363075344464566</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.5085583818752069</v>
+        <v>0.2864215739762718</v>
       </c>
       <c r="C10">
-        <v>2.833416566355677</v>
+        <v>3.411304146226604</v>
       </c>
       <c r="D10">
-        <v>27.39546393872693</v>
+        <v>30.19520442758122</v>
       </c>
       <c r="E10">
-        <v>5.234067628405935</v>
+        <v>5.495016326416257</v>
       </c>
       <c r="F10">
-        <v>5.270953174329484</v>
+        <v>5.570070675043795</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2444862114304603</v>
+        <v>0.5683593138408569</v>
       </c>
       <c r="C11">
-        <v>2.496374826965832</v>
+        <v>3.343257824933541</v>
       </c>
       <c r="D11">
-        <v>22.44915894541807</v>
+        <v>34.92555082416861</v>
       </c>
       <c r="E11">
-        <v>4.738054341754436</v>
+        <v>5.909784329750842</v>
       </c>
       <c r="F11">
-        <v>4.789098872386438</v>
+        <v>5.973595836522446</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/EXPORT/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/EXPORT/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.4414089885834451</v>
+        <v>-0.03276308475587503</v>
       </c>
       <c r="C2">
-        <v>2.069638249730092</v>
+        <v>3.590912207024844</v>
       </c>
       <c r="D2">
-        <v>13.91237005874871</v>
+        <v>47.40170072604877</v>
       </c>
       <c r="E2">
-        <v>3.729928961622286</v>
+        <v>6.884889303834068</v>
       </c>
       <c r="F2">
-        <v>3.748613346451448</v>
+        <v>6.953318621525447</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.6527988889848677</v>
+        <v>0.05364334786105588</v>
       </c>
       <c r="C3">
-        <v>2.704908097310158</v>
+        <v>3.574536985163549</v>
       </c>
       <c r="D3">
-        <v>26.48805711061894</v>
+        <v>44.07793895074698</v>
       </c>
       <c r="E3">
-        <v>5.146654943807573</v>
+        <v>6.639121850873576</v>
       </c>
       <c r="F3">
-        <v>5.168506407966236</v>
+        <v>6.706306911391149</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.4956225713272083</v>
+        <v>-0.04985138525762726</v>
       </c>
       <c r="C4">
-        <v>3.16172899281031</v>
+        <v>3.773358965575171</v>
       </c>
       <c r="D4">
-        <v>28.92945162613211</v>
+        <v>43.3640935270437</v>
       </c>
       <c r="E4">
-        <v>5.378610566506197</v>
+        <v>6.585141875999613</v>
       </c>
       <c r="F4">
-        <v>5.423955401537688</v>
+        <v>6.653192858124505</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.7736103189250133</v>
+        <v>0.2063883000833151</v>
       </c>
       <c r="C5">
-        <v>3.244499711943635</v>
+        <v>3.726029611715911</v>
       </c>
       <c r="D5">
-        <v>27.52530586389647</v>
+        <v>41.36251091033633</v>
       </c>
       <c r="E5">
-        <v>5.246456505480291</v>
+        <v>6.431369287355246</v>
       </c>
       <c r="F5">
-        <v>5.25694148770441</v>
+        <v>6.496080503111255</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.4595302257764673</v>
+        <v>-0.03263097726318537</v>
       </c>
       <c r="C6">
-        <v>3.50693379280404</v>
+        <v>3.889169391173965</v>
       </c>
       <c r="D6">
-        <v>35.78621063427334</v>
+        <v>44.20905250212165</v>
       </c>
       <c r="E6">
-        <v>5.982157690522153</v>
+        <v>6.648988833057373</v>
       </c>
       <c r="F6">
-        <v>6.04454549522689</v>
+        <v>6.720790945475113</v>
       </c>
       <c r="G6">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.8473814559220318</v>
+        <v>0.2010956551540337</v>
       </c>
       <c r="C7">
-        <v>3.362369025740158</v>
+        <v>3.91100830380399</v>
       </c>
       <c r="D7">
-        <v>31.85202081669558</v>
+        <v>49.94279819706635</v>
       </c>
       <c r="E7">
-        <v>5.643759457728118</v>
+        <v>7.06702187608517</v>
       </c>
       <c r="F7">
-        <v>5.656747993276202</v>
+        <v>7.142219545754433</v>
       </c>
       <c r="G7">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3348332891986572</v>
+        <v>-0.1796802820817339</v>
       </c>
       <c r="C8">
-        <v>3.296274014622933</v>
+        <v>3.730114659890623</v>
       </c>
       <c r="D8">
-        <v>29.66640705715701</v>
+        <v>39.99999453259167</v>
       </c>
       <c r="E8">
-        <v>5.446687714304631</v>
+        <v>6.324554888100163</v>
       </c>
       <c r="F8">
-        <v>5.513501801737392</v>
+        <v>6.393439337599808</v>
       </c>
       <c r="G8">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.5287725799852153</v>
+        <v>0.01305864851553937</v>
       </c>
       <c r="C9">
-        <v>2.929081919830375</v>
+        <v>3.680336663577857</v>
       </c>
       <c r="D9">
-        <v>28.22038967316498</v>
+        <v>42.37372025704332</v>
       </c>
       <c r="E9">
-        <v>5.312286670838178</v>
+        <v>6.509509985939289</v>
       </c>
       <c r="F9">
-        <v>5.363075344464566</v>
+        <v>6.584753686948571</v>
       </c>
       <c r="G9">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2864215739762718</v>
+        <v>-0.1400871512439874</v>
       </c>
       <c r="C10">
-        <v>3.411304146226604</v>
+        <v>4.022154036027911</v>
       </c>
       <c r="D10">
-        <v>30.19520442758122</v>
+        <v>46.29094780507954</v>
       </c>
       <c r="E10">
-        <v>5.495016326416257</v>
+        <v>6.803745130814318</v>
       </c>
       <c r="F10">
-        <v>5.570070675043795</v>
+        <v>6.882806227928441</v>
       </c>
       <c r="G10">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.5683593138408569</v>
+        <v>0.1042633263670164</v>
       </c>
       <c r="C11">
-        <v>3.343257824933541</v>
+        <v>3.990286954105756</v>
       </c>
       <c r="D11">
-        <v>34.92555082416861</v>
+        <v>47.50789127154154</v>
       </c>
       <c r="E11">
-        <v>5.909784329750842</v>
+        <v>6.892596845278384</v>
       </c>
       <c r="F11">
-        <v>5.973595836522446</v>
+        <v>6.975348331320163</v>
       </c>
       <c r="G11">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/EXPORT/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/EXPORT/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2010956551540337</v>
+        <v>-0.2110980427227692</v>
       </c>
       <c r="C7">
-        <v>3.91100830380399</v>
+        <v>4.084665252393866</v>
       </c>
       <c r="D7">
-        <v>49.94279819706635</v>
+        <v>55.34091037395347</v>
       </c>
       <c r="E7">
-        <v>7.06702187608517</v>
+        <v>7.439147153669799</v>
       </c>
       <c r="F7">
-        <v>7.142219545754433</v>
+        <v>7.535970002723084</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.1796802820817339</v>
+        <v>-0.0736133828721533</v>
       </c>
       <c r="C8">
-        <v>3.730114659890623</v>
+        <v>4.089497862141505</v>
       </c>
       <c r="D8">
-        <v>39.99999453259167</v>
+        <v>46.25719633263552</v>
       </c>
       <c r="E8">
-        <v>6.324554888100163</v>
+        <v>6.801264318686307</v>
       </c>
       <c r="F8">
-        <v>6.393439337599808</v>
+        <v>6.894675409111837</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01305864851553937</v>
+        <v>0.4641329866075957</v>
       </c>
       <c r="C9">
-        <v>3.680336663577857</v>
+        <v>5.772776870582859</v>
       </c>
       <c r="D9">
-        <v>42.37372025704332</v>
+        <v>82.08122295050586</v>
       </c>
       <c r="E9">
-        <v>6.509509985939289</v>
+        <v>9.059868815303336</v>
       </c>
       <c r="F9">
-        <v>6.584753686948571</v>
+        <v>9.283023754271392</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1400871512439874</v>
+        <v>-1.816813321953852</v>
       </c>
       <c r="C10">
-        <v>4.022154036027911</v>
+        <v>6.322456511174873</v>
       </c>
       <c r="D10">
-        <v>46.29094780507954</v>
+        <v>95.93714123768407</v>
       </c>
       <c r="E10">
-        <v>6.803745130814318</v>
+        <v>9.794750698087423</v>
       </c>
       <c r="F10">
-        <v>6.882806227928441</v>
+        <v>10.01778542427216</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1042633263670164</v>
+        <v>-4.942193916381401</v>
       </c>
       <c r="C11">
-        <v>3.990286954105756</v>
+        <v>6.806990479524936</v>
       </c>
       <c r="D11">
-        <v>47.50789127154154</v>
+        <v>87.80047509187096</v>
       </c>
       <c r="E11">
-        <v>6.892596845278384</v>
+        <v>9.370190771370185</v>
       </c>
       <c r="F11">
-        <v>6.975348331320163</v>
+        <v>8.900505209309301</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
